--- a/input/2021_hitter_BR_link_database.xlsx
+++ b/input/2021_hitter_BR_link_database.xlsx
@@ -1296,9 +1296,6 @@
     <t>Sergio Alcantara</t>
   </si>
   <si>
-    <t>LaMonte Wade Jr</t>
-  </si>
-  <si>
     <t>Byron Buxton</t>
   </si>
   <si>
@@ -1888,6 +1885,9 @@
   </si>
   <si>
     <t>Tom Murphy</t>
+  </si>
+  <si>
+    <t>LaMonte Wade</t>
   </si>
 </sst>
 </file>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="B458" sqref="B458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2303,24 +2303,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" t="s">
         <v>553</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>554</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="F1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(LEFT(MID(A2,FIND(" ",A2)+1,256),1))</f>
@@ -2335,7 +2335,7 @@
         <v>ja</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F2" t="str">
         <f>C2&amp;D2&amp;E2</f>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B8" si="0">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),1))</f>
@@ -2359,7 +2359,7 @@
         <v>ja</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F8" si="3">C3&amp;D3&amp;E3</f>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2383,7 @@
         <v>ma</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -2407,7 +2407,7 @@
         <v>je</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -2431,7 +2431,7 @@
         <v>bu</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -2455,7 +2455,7 @@
         <v>mi</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -2479,7 +2479,7 @@
         <v>to</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B9" t="str">
         <f>LOWER(LEFT(MID(A9,FIND(" ",A9)+1,256),1))</f>
@@ -2503,7 +2503,7 @@
         <v>br</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F9" t="str">
         <f>C9&amp;D9&amp;E9</f>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ref="B10:B21" si="4">LOWER(LEFT(MID(A10,FIND(" ",A10)+1,256),1))</f>
@@ -2527,7 +2527,7 @@
         <v>ty</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ref="F10:F21" si="7">C10&amp;D10&amp;E10</f>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="4"/>
@@ -2551,7 +2551,7 @@
         <v>ky</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="7"/>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="4"/>
@@ -2575,7 +2575,7 @@
         <v>ma</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="7"/>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="4"/>
@@ -2599,7 +2599,7 @@
         <v>aa</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="7"/>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="4"/>
@@ -2623,7 +2623,7 @@
         <v>ty</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="7"/>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="4"/>
@@ -2647,7 +2647,7 @@
         <v>sa</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="7"/>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="4"/>
@@ -2671,7 +2671,7 @@
         <v>ja</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="7"/>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="4"/>
@@ -2695,7 +2695,7 @@
         <v>lu</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="7"/>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="4"/>
@@ -2719,7 +2719,7 @@
         <v>cl</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="7"/>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="4"/>
@@ -2743,7 +2743,7 @@
         <v>ge</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="7"/>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="4"/>
@@ -2767,7 +2767,7 @@
         <v>ma</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="7"/>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="4"/>
@@ -2791,7 +2791,7 @@
         <v>yu</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="7"/>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B22" t="str">
         <f>LOWER(LEFT(MID(A22,FIND(" ",A22)+1,256),1))</f>
@@ -2815,7 +2815,7 @@
         <v>ke</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F22" t="str">
         <f>C22&amp;D22&amp;E22</f>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B23" t="str">
         <f>LOWER(LEFT(MID(A23,FIND(" ",A23)+1,256),1))</f>
@@ -2839,7 +2839,7 @@
         <v>tr</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F23" t="str">
         <f>C23&amp;D23&amp;E23</f>
@@ -2863,7 +2863,7 @@
         <v>sh</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F24" t="str">
         <f>C24&amp;D24&amp;E24</f>
@@ -2887,7 +2887,7 @@
         <v>ev</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ref="F25:F89" si="11">C25&amp;D25&amp;E25</f>
@@ -2911,7 +2911,7 @@
         <v>ky</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="11"/>
@@ -2935,7 +2935,7 @@
         <v>ky</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="11"/>
@@ -2959,7 +2959,7 @@
         <v>ti</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="11"/>
@@ -2983,10 +2983,10 @@
         <v>j.</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>dy</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="11"/>
@@ -3030,7 +3030,7 @@
         <v>ma</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="11"/>
@@ -3054,7 +3054,7 @@
         <v>jo</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="11"/>
@@ -3078,7 +3078,7 @@
         <v>da</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="11"/>
@@ -3102,7 +3102,7 @@
         <v>mi</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="11"/>
@@ -3126,7 +3126,7 @@
         <v>an</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="11"/>
@@ -3150,7 +3150,7 @@
         <v>ju</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="11"/>
@@ -3174,7 +3174,7 @@
         <v>sh</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="11"/>
@@ -3198,7 +3198,7 @@
         <v>al</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="11"/>
@@ -3222,10 +3222,10 @@
         <v>to</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3245,7 +3245,7 @@
         <v>ma</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="11"/>
@@ -3269,7 +3269,7 @@
         <v>ta</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="11"/>
@@ -3293,7 +3293,7 @@
         <v>jo</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="11"/>
@@ -3317,15 +3317,15 @@
         <v>de</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="8"/>
@@ -3340,10 +3340,10 @@
         <v>de</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3363,7 +3363,7 @@
         <v>ja</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="11"/>
@@ -3387,7 +3387,7 @@
         <v>ja</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="11"/>
@@ -3411,7 +3411,7 @@
         <v>br</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="11"/>
@@ -3435,7 +3435,7 @@
         <v>da</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="11"/>
@@ -3459,7 +3459,7 @@
         <v>jo</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="11"/>
@@ -3483,7 +3483,7 @@
         <v>lu</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="11"/>
@@ -3507,7 +3507,7 @@
         <v>ge</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="11"/>
@@ -3531,7 +3531,7 @@
         <v>jo</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="11"/>
@@ -3555,7 +3555,7 @@
         <v>al</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="11"/>
@@ -3579,7 +3579,7 @@
         <v>mi</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="11"/>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="8"/>
@@ -3603,10 +3603,10 @@
         <v>yu</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>ca</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="11"/>
@@ -3650,7 +3650,7 @@
         <v>jo</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="11"/>
@@ -3674,7 +3674,7 @@
         <v>ky</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="11"/>
@@ -3698,7 +3698,7 @@
         <v>ma</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="11"/>
@@ -3722,7 +3722,7 @@
         <v>mi</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="11"/>
@@ -3746,7 +3746,7 @@
         <v>ab</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="11"/>
@@ -3770,7 +3770,7 @@
         <v>ma</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="11"/>
@@ -3794,7 +3794,7 @@
         <v>ja</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="11"/>
@@ -3818,7 +3818,7 @@
         <v>du</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="11"/>
@@ -3842,7 +3842,7 @@
         <v>ma</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="11"/>
@@ -3866,7 +3866,7 @@
         <v>ra</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="11"/>
@@ -3890,7 +3890,7 @@
         <v>ma</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="11"/>
@@ -3914,7 +3914,7 @@
         <v>ma</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="11"/>
@@ -3938,7 +3938,7 @@
         <v>ma</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="11"/>
@@ -3962,7 +3962,7 @@
         <v>ro</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="11"/>
@@ -3986,7 +3986,7 @@
         <v>st</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="11"/>
@@ -4010,7 +4010,7 @@
         <v>ch</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="11"/>
@@ -4034,7 +4034,7 @@
         <v>se</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="11"/>
@@ -4058,7 +4058,7 @@
         <v>jo</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="11"/>
@@ -4082,7 +4082,7 @@
         <v>kh</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="11"/>
@@ -4106,7 +4106,7 @@
         <v>to</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="11"/>
@@ -4130,7 +4130,7 @@
         <v>au</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="11"/>
@@ -4154,7 +4154,7 @@
         <v>mo</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="11"/>
@@ -4178,7 +4178,7 @@
         <v>co</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="11"/>
@@ -4202,7 +4202,7 @@
         <v>ju</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="11"/>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="8"/>
@@ -4226,10 +4226,10 @@
         <v>a.</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F81" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4249,7 +4249,7 @@
         <v>co</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="11"/>
@@ -4273,7 +4273,7 @@
         <v>ch</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="11"/>
@@ -4297,7 +4297,7 @@
         <v>en</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="11"/>
@@ -4321,7 +4321,7 @@
         <v>ed</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="11"/>
@@ -4345,7 +4345,7 @@
         <v>au</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="11"/>
@@ -4369,7 +4369,7 @@
         <v>ma</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="11"/>
@@ -4393,7 +4393,7 @@
         <v>jo</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="11"/>
@@ -4417,7 +4417,7 @@
         <v>ma</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="11"/>
@@ -4441,7 +4441,7 @@
         <v>ke</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" ref="F90:F153" si="15">C90&amp;D90&amp;E90</f>
@@ -4465,7 +4465,7 @@
         <v>mi</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="15"/>
@@ -4489,7 +4489,7 @@
         <v>al</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="15"/>
@@ -4513,7 +4513,7 @@
         <v>do</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="15"/>
@@ -4537,7 +4537,7 @@
         <v>br</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="15"/>
@@ -4561,7 +4561,7 @@
         <v>ev</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="15"/>
@@ -4585,7 +4585,7 @@
         <v>pa</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="15"/>
@@ -4609,7 +4609,7 @@
         <v>br</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="15"/>
@@ -4633,7 +4633,7 @@
         <v>ma</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="15"/>
@@ -4657,7 +4657,7 @@
         <v>ch</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="15"/>
@@ -4681,7 +4681,7 @@
         <v>ty</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="15"/>
@@ -4705,7 +4705,7 @@
         <v>st</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="15"/>
@@ -4729,7 +4729,7 @@
         <v>an</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="15"/>
@@ -4753,7 +4753,7 @@
         <v>sa</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="15"/>
@@ -4777,7 +4777,7 @@
         <v>au</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="15"/>
@@ -4801,7 +4801,7 @@
         <v>br</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="15"/>
@@ -4825,7 +4825,7 @@
         <v>an</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="15"/>
@@ -4849,7 +4849,7 @@
         <v>ja</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="15"/>
@@ -4873,7 +4873,7 @@
         <v>do</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="15"/>
@@ -4897,7 +4897,7 @@
         <v>tr</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="15"/>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="12"/>
@@ -4921,7 +4921,7 @@
         <v>fe</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="15"/>
@@ -4945,7 +4945,7 @@
         <v>ma</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="15"/>
@@ -4969,7 +4969,7 @@
         <v>er</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="15"/>
@@ -4993,7 +4993,7 @@
         <v>mi</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="15"/>
@@ -5017,7 +5017,7 @@
         <v>ja</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="15"/>
@@ -5041,7 +5041,7 @@
         <v>ju</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="15"/>
@@ -5065,7 +5065,7 @@
         <v>gr</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="15"/>
@@ -5089,7 +5089,7 @@
         <v>wi</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="15"/>
@@ -5113,7 +5113,7 @@
         <v>jo</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="15"/>
@@ -5137,7 +5137,7 @@
         <v>fr</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="15"/>
@@ -5161,7 +5161,7 @@
         <v>al</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="15"/>
@@ -5185,7 +5185,7 @@
         <v>jo</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="15"/>
@@ -5209,7 +5209,7 @@
         <v>jo</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="15"/>
@@ -5233,7 +5233,7 @@
         <v>pa</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="15"/>
@@ -5257,7 +5257,7 @@
         <v>ch</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="15"/>
@@ -5281,7 +5281,7 @@
         <v>ko</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="15"/>
@@ -5305,7 +5305,7 @@
         <v>ed</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="15"/>
@@ -5329,7 +5329,7 @@
         <v>da</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="15"/>
@@ -5353,7 +5353,7 @@
         <v>ni</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="15"/>
@@ -5377,7 +5377,7 @@
         <v>da</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="15"/>
@@ -5401,7 +5401,7 @@
         <v>ca</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="15"/>
@@ -5425,7 +5425,7 @@
         <v>jo</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="15"/>
@@ -5449,7 +5449,7 @@
         <v>st</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="15"/>
@@ -5473,7 +5473,7 @@
         <v>le</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="15"/>
@@ -5497,7 +5497,7 @@
         <v>ni</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="15"/>
@@ -5521,7 +5521,7 @@
         <v>is</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="15"/>
@@ -5545,7 +5545,7 @@
         <v>jo</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="15"/>
@@ -5569,7 +5569,7 @@
         <v>ro</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="15"/>
@@ -5593,7 +5593,7 @@
         <v>an</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="15"/>
@@ -5617,7 +5617,7 @@
         <v>wi</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="15"/>
@@ -5641,7 +5641,7 @@
         <v>sa</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="15"/>
@@ -5665,7 +5665,7 @@
         <v>el</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="15"/>
@@ -5689,7 +5689,7 @@
         <v>ro</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="15"/>
@@ -5713,7 +5713,7 @@
         <v>sh</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="15"/>
@@ -5737,7 +5737,7 @@
         <v>je</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="15"/>
@@ -5761,7 +5761,7 @@
         <v>de</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="15"/>
@@ -5785,7 +5785,7 @@
         <v>wi</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="15"/>
@@ -5809,7 +5809,7 @@
         <v>ke</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="15"/>
@@ -5833,7 +5833,7 @@
         <v>st</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="15"/>
@@ -5857,7 +5857,7 @@
         <v>ja</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="15"/>
@@ -5881,7 +5881,7 @@
         <v>il</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="15"/>
@@ -5905,7 +5905,7 @@
         <v>ti</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="15"/>
@@ -5929,7 +5929,7 @@
         <v>my</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="15"/>
@@ -5953,7 +5953,7 @@
         <v>jo</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="15"/>
@@ -5977,7 +5977,7 @@
         <v>an</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" ref="F154:F217" si="19">C154&amp;D154&amp;E154</f>
@@ -5997,10 +5997,10 @@
         <v>pham</v>
       </c>
       <c r="D155" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="19"/>
@@ -6024,7 +6024,7 @@
         <v>fr</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="19"/>
@@ -6048,7 +6048,7 @@
         <v>ed</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="19"/>
@@ -6072,7 +6072,7 @@
         <v>au</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="19"/>
@@ -6096,7 +6096,7 @@
         <v>vi</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="19"/>
@@ -6120,7 +6120,7 @@
         <v>ke</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="19"/>
@@ -6144,7 +6144,7 @@
         <v>ra</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="19"/>
@@ -6168,7 +6168,7 @@
         <v>tr</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="19"/>
@@ -6192,7 +6192,7 @@
         <v>no</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="19"/>
@@ -6216,7 +6216,7 @@
         <v>da</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="19"/>
@@ -6240,7 +6240,7 @@
         <v>ry</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="19"/>
@@ -6264,7 +6264,7 @@
         <v>ma</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="19"/>
@@ -6288,7 +6288,7 @@
         <v>sa</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="19"/>
@@ -6312,7 +6312,7 @@
         <v>ga</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="19"/>
@@ -6336,7 +6336,7 @@
         <v>to</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="19"/>
@@ -6360,7 +6360,7 @@
         <v>ch</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="19"/>
@@ -6384,7 +6384,7 @@
         <v>jo</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="19"/>
@@ -6408,7 +6408,7 @@
         <v>br</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="19"/>
@@ -6432,7 +6432,7 @@
         <v>dr</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="19"/>
@@ -6456,7 +6456,7 @@
         <v>el</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="19"/>
@@ -6480,7 +6480,7 @@
         <v>wi</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="19"/>
@@ -6504,7 +6504,7 @@
         <v>jo</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="19"/>
@@ -6528,7 +6528,7 @@
         <v>jo</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="19"/>
@@ -6552,7 +6552,7 @@
         <v>ga</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="19"/>
@@ -6576,7 +6576,7 @@
         <v>wy</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="19"/>
@@ -6600,7 +6600,7 @@
         <v>ty</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="19"/>
@@ -6624,7 +6624,7 @@
         <v>lu</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="19"/>
@@ -6648,7 +6648,7 @@
         <v>ph</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="19"/>
@@ -6672,7 +6672,7 @@
         <v>ke</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="19"/>
@@ -6696,7 +6696,7 @@
         <v>br</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="19"/>
@@ -6720,7 +6720,7 @@
         <v>jo</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="19"/>
@@ -6744,7 +6744,7 @@
         <v>ya</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="19"/>
@@ -6768,7 +6768,7 @@
         <v>yo</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="19"/>
@@ -6792,7 +6792,7 @@
         <v>ma</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="19"/>
@@ -6816,7 +6816,7 @@
         <v>ke</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="19"/>
@@ -6840,7 +6840,7 @@
         <v>hu</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="19"/>
@@ -6864,7 +6864,7 @@
         <v>wi</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="19"/>
@@ -6888,7 +6888,7 @@
         <v>mi</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="19"/>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="16"/>
@@ -6912,7 +6912,7 @@
         <v>ro</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="19"/>
@@ -6936,7 +6936,7 @@
         <v>oz</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="19"/>
@@ -6960,7 +6960,7 @@
         <v>fr</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" si="19"/>
@@ -6984,7 +6984,7 @@
         <v>ma</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="19"/>
@@ -7008,7 +7008,7 @@
         <v>ma</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="19"/>
@@ -7032,10 +7032,10 @@
         <v>tr</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F198" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7055,7 +7055,7 @@
         <v>da</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="19"/>
@@ -7079,7 +7079,7 @@
         <v>au</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="19"/>
@@ -7103,7 +7103,7 @@
         <v>en</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="19"/>
@@ -7127,7 +7127,7 @@
         <v>jo</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="19"/>
@@ -7151,7 +7151,7 @@
         <v>mi</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="19"/>
@@ -7175,7 +7175,7 @@
         <v>ad</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="19"/>
@@ -7199,7 +7199,7 @@
         <v>jo</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="19"/>
@@ -7223,7 +7223,7 @@
         <v>ty</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="19"/>
@@ -7247,7 +7247,7 @@
         <v>am</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="19"/>
@@ -7271,7 +7271,7 @@
         <v>br</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="19"/>
@@ -7295,7 +7295,7 @@
         <v>pe</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="19"/>
@@ -7319,10 +7319,10 @@
         <v>j.</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F210" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -7342,7 +7342,7 @@
         <v>mi</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="19"/>
@@ -7366,7 +7366,7 @@
         <v>yo</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="19"/>
@@ -7390,7 +7390,7 @@
         <v>ro</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="19"/>
@@ -7414,7 +7414,7 @@
         <v>wi</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="19"/>
@@ -7438,7 +7438,7 @@
         <v>an</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="19"/>
@@ -7462,7 +7462,7 @@
         <v>ad</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="19"/>
@@ -7486,7 +7486,7 @@
         <v>je</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="19"/>
@@ -7510,7 +7510,7 @@
         <v>do</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" ref="F218:F281" si="23">C218&amp;D218&amp;E218</f>
@@ -7534,7 +7534,7 @@
         <v>to</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="23"/>
@@ -7558,7 +7558,7 @@
         <v>bo</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="23"/>
@@ -7582,7 +7582,7 @@
         <v>ca</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="23"/>
@@ -7606,7 +7606,7 @@
         <v>te</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="23"/>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="20"/>
@@ -7630,7 +7630,7 @@
         <v>lo</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="23"/>
@@ -7654,7 +7654,7 @@
         <v>vl</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="23"/>
@@ -7678,7 +7678,7 @@
         <v>ra</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="23"/>
@@ -7702,7 +7702,7 @@
         <v>da</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="23"/>
@@ -7726,7 +7726,7 @@
         <v>br</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="23"/>
@@ -7750,7 +7750,7 @@
         <v>an</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="23"/>
@@ -7774,7 +7774,7 @@
         <v>ch</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="23"/>
@@ -7798,7 +7798,7 @@
         <v>ro</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="23"/>
@@ -7822,7 +7822,7 @@
         <v>tr</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="23"/>
@@ -7846,7 +7846,7 @@
         <v>jo</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="23"/>
@@ -7870,7 +7870,7 @@
         <v>re</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="23"/>
@@ -7894,7 +7894,7 @@
         <v>ni</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="23"/>
@@ -7918,7 +7918,7 @@
         <v>tr</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="23"/>
@@ -7942,7 +7942,7 @@
         <v>ad</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="23"/>
@@ -7966,7 +7966,7 @@
         <v>ju</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="23"/>
@@ -7990,7 +7990,7 @@
         <v>as</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="23"/>
@@ -8014,7 +8014,7 @@
         <v>ku</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="23"/>
@@ -8038,7 +8038,7 @@
         <v>lu</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="23"/>
@@ -8062,7 +8062,7 @@
         <v>ca</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="23"/>
@@ -8086,7 +8086,7 @@
         <v>er</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="23"/>
@@ -8110,7 +8110,7 @@
         <v>vi</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="23"/>
@@ -8134,7 +8134,7 @@
         <v>ya</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="23"/>
@@ -8158,7 +8158,7 @@
         <v>an</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="23"/>
@@ -8182,7 +8182,7 @@
         <v>rh</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="23"/>
@@ -8206,10 +8206,10 @@
         <v>j.</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F247" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -8229,7 +8229,7 @@
         <v>je</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="23"/>
@@ -8253,7 +8253,7 @@
         <v>ph</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="23"/>
@@ -8277,7 +8277,7 @@
         <v>di</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="23"/>
@@ -8301,7 +8301,7 @@
         <v>al</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="23"/>
@@ -8325,7 +8325,7 @@
         <v>ro</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="23"/>
@@ -8349,7 +8349,7 @@
         <v>sc</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="23"/>
@@ -8373,7 +8373,7 @@
         <v>cr</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="23"/>
@@ -8397,7 +8397,7 @@
         <v>br</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="23"/>
@@ -8421,7 +8421,7 @@
         <v>an</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="23"/>
@@ -8445,7 +8445,7 @@
         <v>ad</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="23"/>
@@ -8469,7 +8469,7 @@
         <v>ho</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="23"/>
@@ -8493,7 +8493,7 @@
         <v>br</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="23"/>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" si="20"/>
@@ -8517,10 +8517,10 @@
         <v>mi</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F260" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -8540,7 +8540,7 @@
         <v>co</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="23"/>
@@ -8564,7 +8564,7 @@
         <v>je</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="23"/>
@@ -8588,7 +8588,7 @@
         <v>ma</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="23"/>
@@ -8612,7 +8612,7 @@
         <v>ga</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="23"/>
@@ -8636,7 +8636,7 @@
         <v>jo</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="23"/>
@@ -8660,7 +8660,7 @@
         <v>ja</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="23"/>
@@ -8684,7 +8684,7 @@
         <v>mi</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="23"/>
@@ -8708,7 +8708,7 @@
         <v>jo</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="23"/>
@@ -8732,7 +8732,7 @@
         <v>br</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="23"/>
@@ -8756,7 +8756,7 @@
         <v>le</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="23"/>
@@ -8780,7 +8780,7 @@
         <v>mo</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="23"/>
@@ -8804,7 +8804,7 @@
         <v>ch</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="23"/>
@@ -8828,7 +8828,7 @@
         <v>al</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="23"/>
@@ -8852,7 +8852,7 @@
         <v>ch</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="23"/>
@@ -8876,15 +8876,15 @@
         <v>j.</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F275" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="20"/>
@@ -8899,7 +8899,7 @@
         <v>ja</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="23"/>
@@ -8923,7 +8923,7 @@
         <v>ke</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="23"/>
@@ -8947,7 +8947,7 @@
         <v>bo</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="23"/>
@@ -8971,10 +8971,10 @@
         <v>tz</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F279" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8994,7 +8994,7 @@
         <v>mi</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="23"/>
@@ -9018,7 +9018,7 @@
         <v>jo</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="23"/>
@@ -9042,7 +9042,7 @@
         <v>ra</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" ref="F282:F345" si="27">C282&amp;D282&amp;E282</f>
@@ -9066,7 +9066,7 @@
         <v>xa</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="27"/>
@@ -9090,7 +9090,7 @@
         <v>ch</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="27"/>
@@ -9114,7 +9114,7 @@
         <v>ni</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="27"/>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="24"/>
@@ -9138,7 +9138,7 @@
         <v>ni</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F286" t="str">
         <f t="shared" si="27"/>
@@ -9162,7 +9162,7 @@
         <v>jo</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F287" t="str">
         <f t="shared" si="27"/>
@@ -9186,7 +9186,7 @@
         <v>eu</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F288" t="str">
         <f t="shared" si="27"/>
@@ -9210,7 +9210,7 @@
         <v>mi</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F289" t="str">
         <f t="shared" si="27"/>
@@ -9234,7 +9234,7 @@
         <v>ar</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F290" t="str">
         <f t="shared" si="27"/>
@@ -9258,7 +9258,7 @@
         <v>je</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F291" t="str">
         <f t="shared" si="27"/>
@@ -9282,7 +9282,7 @@
         <v>ky</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F292" t="str">
         <f t="shared" si="27"/>
@@ -9306,7 +9306,7 @@
         <v>cu</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="27"/>
@@ -9330,7 +9330,7 @@
         <v>sh</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="27"/>
@@ -9354,7 +9354,7 @@
         <v>fr</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="27"/>
@@ -9378,7 +9378,7 @@
         <v>tu</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="27"/>
@@ -9402,7 +9402,7 @@
         <v>ma</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="27"/>
@@ -9426,7 +9426,7 @@
         <v>dj</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="27"/>
@@ -9450,7 +9450,7 @@
         <v>aa</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F299" t="str">
         <f t="shared" si="27"/>
@@ -9474,7 +9474,7 @@
         <v>gl</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F300" t="str">
         <f t="shared" si="27"/>
@@ -9498,10 +9498,10 @@
         <v>gi</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F301" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -9521,7 +9521,7 @@
         <v>aa</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F302" t="str">
         <f t="shared" si="27"/>
@@ -9545,7 +9545,7 @@
         <v>mi</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F303" t="str">
         <f t="shared" si="27"/>
@@ -9569,7 +9569,7 @@
         <v>ga</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F304" t="str">
         <f t="shared" si="27"/>
@@ -9593,7 +9593,7 @@
         <v>gi</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F305" t="str">
         <f t="shared" si="27"/>
@@ -9617,7 +9617,7 @@
         <v>br</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F306" t="str">
         <f t="shared" si="27"/>
@@ -9641,7 +9641,7 @@
         <v>au</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F307" t="str">
         <f t="shared" si="27"/>
@@ -9665,7 +9665,7 @@
         <v>an</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F308" t="str">
         <f t="shared" si="27"/>
@@ -9689,7 +9689,7 @@
         <v>jo</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F309" t="str">
         <f t="shared" si="27"/>
@@ -9713,7 +9713,7 @@
         <v>ri</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F310" t="str">
         <f t="shared" si="27"/>
@@ -9737,7 +9737,7 @@
         <v>ha</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F311" t="str">
         <f t="shared" si="27"/>
@@ -9761,7 +9761,7 @@
         <v>re</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F312" t="str">
         <f t="shared" si="27"/>
@@ -9785,10 +9785,10 @@
         <v>dw</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F313" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -9808,7 +9808,7 @@
         <v>pe</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F314" t="str">
         <f t="shared" si="27"/>
@@ -9832,7 +9832,7 @@
         <v>dj</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F315" t="str">
         <f t="shared" si="27"/>
@@ -9856,7 +9856,7 @@
         <v>lu</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F316" t="str">
         <f t="shared" si="27"/>
@@ -9880,7 +9880,7 @@
         <v>mi</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F317" t="str">
         <f t="shared" si="27"/>
@@ -9904,7 +9904,7 @@
         <v>pa</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F318" t="str">
         <f t="shared" si="27"/>
@@ -9928,7 +9928,7 @@
         <v>ce</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F319" t="str">
         <f t="shared" si="27"/>
@@ -9952,7 +9952,7 @@
         <v>ji</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F320" t="str">
         <f t="shared" si="27"/>
@@ -9976,7 +9976,7 @@
         <v>an</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F321" t="str">
         <f t="shared" si="27"/>
@@ -10000,7 +10000,7 @@
         <v>ch</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F322" t="str">
         <f t="shared" si="27"/>
@@ -10024,7 +10024,7 @@
         <v>jo</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F323" t="str">
         <f t="shared" si="27"/>
@@ -10048,7 +10048,7 @@
         <v>lo</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F324" t="str">
         <f t="shared" si="27"/>
@@ -10072,7 +10072,7 @@
         <v>fr</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F325" t="str">
         <f t="shared" si="27"/>
@@ -10096,7 +10096,7 @@
         <v>ch</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F326" t="str">
         <f t="shared" si="27"/>
@@ -10120,7 +10120,7 @@
         <v>br</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F327" t="str">
         <f t="shared" si="27"/>
@@ -10144,7 +10144,7 @@
         <v>jo</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F328" t="str">
         <f t="shared" si="27"/>
@@ -10168,7 +10168,7 @@
         <v>wi</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F329" t="str">
         <f t="shared" si="27"/>
@@ -10192,7 +10192,7 @@
         <v>sa</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="27"/>
@@ -10216,7 +10216,7 @@
         <v>jo</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F331" t="str">
         <f t="shared" si="27"/>
@@ -10240,7 +10240,7 @@
         <v>ry</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F332" t="str">
         <f t="shared" si="27"/>
@@ -10264,7 +10264,7 @@
         <v>ra</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F333" t="str">
         <f t="shared" si="27"/>
@@ -10288,7 +10288,7 @@
         <v>lu</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F334" t="str">
         <f t="shared" si="27"/>
@@ -10312,7 +10312,7 @@
         <v>al</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="27"/>
@@ -10336,7 +10336,7 @@
         <v>to</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="27"/>
@@ -10360,7 +10360,7 @@
         <v>ja</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" si="27"/>
@@ -10384,7 +10384,7 @@
         <v>cl</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="27"/>
@@ -10408,7 +10408,7 @@
         <v>ky</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="27"/>
@@ -10432,7 +10432,7 @@
         <v>th</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="27"/>
@@ -10456,7 +10456,7 @@
         <v>ty</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="27"/>
@@ -10480,7 +10480,7 @@
         <v>ma</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="27"/>
@@ -10504,7 +10504,7 @@
         <v>mi</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="27"/>
@@ -10528,7 +10528,7 @@
         <v>er</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="27"/>
@@ -10552,7 +10552,7 @@
         <v>ra</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="27"/>
@@ -10576,7 +10576,7 @@
         <v>na</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" ref="F346:F409" si="31">C346&amp;D346&amp;E346</f>
@@ -10600,7 +10600,7 @@
         <v>mi</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="31"/>
@@ -10624,7 +10624,7 @@
         <v>br</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="31"/>
@@ -10648,7 +10648,7 @@
         <v>ke</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="31"/>
@@ -10672,7 +10672,7 @@
         <v>an</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F350" t="str">
         <f t="shared" si="31"/>
@@ -10696,7 +10696,7 @@
         <v>au</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="31"/>
@@ -10720,7 +10720,7 @@
         <v>ja</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="31"/>
@@ -10744,7 +10744,7 @@
         <v>ky</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="31"/>
@@ -10768,7 +10768,7 @@
         <v>ya</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="31"/>
@@ -10792,7 +10792,7 @@
         <v>de</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="31"/>
@@ -10816,7 +10816,7 @@
         <v>ca</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F356" t="str">
         <f t="shared" si="31"/>
@@ -10840,7 +10840,7 @@
         <v>ce</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F357" t="str">
         <f t="shared" si="31"/>
@@ -10864,7 +10864,7 @@
         <v>ma</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F358" t="str">
         <f t="shared" si="31"/>
@@ -10888,7 +10888,7 @@
         <v>jo</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F359" t="str">
         <f t="shared" si="31"/>
@@ -10912,7 +10912,7 @@
         <v>jo</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F360" t="str">
         <f t="shared" si="31"/>
@@ -10936,7 +10936,7 @@
         <v>ne</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F361" t="str">
         <f t="shared" si="31"/>
@@ -10960,7 +10960,7 @@
         <v>ed</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="31"/>
@@ -10984,7 +10984,7 @@
         <v>mi</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F363" t="str">
         <f t="shared" si="31"/>
@@ -11008,7 +11008,7 @@
         <v>ja</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F364" t="str">
         <f t="shared" si="31"/>
@@ -11032,7 +11032,7 @@
         <v>mi</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F365" t="str">
         <f t="shared" si="31"/>
@@ -11056,7 +11056,7 @@
         <v>lu</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F366" t="str">
         <f t="shared" si="31"/>
@@ -11080,7 +11080,7 @@
         <v>ti</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F367" t="str">
         <f t="shared" si="31"/>
@@ -11104,7 +11104,7 @@
         <v>yo</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F368" t="str">
         <f t="shared" si="31"/>
@@ -11128,7 +11128,7 @@
         <v>jo</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F369" t="str">
         <f t="shared" si="31"/>
@@ -11152,7 +11152,7 @@
         <v>ya</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F370" t="str">
         <f t="shared" si="31"/>
@@ -11176,7 +11176,7 @@
         <v>ed</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F371" t="str">
         <f t="shared" si="31"/>
@@ -11200,7 +11200,7 @@
         <v>el</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F372" t="str">
         <f t="shared" si="31"/>
@@ -11224,7 +11224,7 @@
         <v>lu</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="31"/>
@@ -11248,7 +11248,7 @@
         <v>ni</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="31"/>
@@ -11272,7 +11272,7 @@
         <v>le</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F375" t="str">
         <f t="shared" si="31"/>
@@ -11296,7 +11296,7 @@
         <v>ma</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F376" t="str">
         <f t="shared" si="31"/>
@@ -11320,7 +11320,7 @@
         <v>eh</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F377" t="str">
         <f t="shared" si="31"/>
@@ -11344,7 +11344,7 @@
         <v>ja</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F378" t="str">
         <f t="shared" si="31"/>
@@ -11368,7 +11368,7 @@
         <v>al</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F379" t="str">
         <f t="shared" si="31"/>
@@ -11392,7 +11392,7 @@
         <v>da</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F380" t="str">
         <f t="shared" si="31"/>
@@ -11416,7 +11416,7 @@
         <v>ry</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F381" t="str">
         <f t="shared" si="31"/>
@@ -11440,7 +11440,7 @@
         <v>ke</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F382" t="str">
         <f t="shared" si="31"/>
@@ -11464,7 +11464,7 @@
         <v>av</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F383" t="str">
         <f t="shared" si="31"/>
@@ -11488,7 +11488,7 @@
         <v>je</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F384" t="str">
         <f t="shared" si="31"/>
@@ -11512,7 +11512,7 @@
         <v>be</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F385" t="str">
         <f t="shared" si="31"/>
@@ -11536,7 +11536,7 @@
         <v>ma</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F386" t="str">
         <f t="shared" si="31"/>
@@ -11560,7 +11560,7 @@
         <v>ma</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F387" t="str">
         <f t="shared" si="31"/>
@@ -11584,7 +11584,7 @@
         <v>or</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F388" t="str">
         <f t="shared" si="31"/>
@@ -11608,7 +11608,7 @@
         <v>er</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F389" t="str">
         <f t="shared" si="31"/>
@@ -11632,7 +11632,7 @@
         <v>no</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F390" t="str">
         <f t="shared" si="31"/>
@@ -11656,7 +11656,7 @@
         <v>ch</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F391" t="str">
         <f t="shared" si="31"/>
@@ -11680,7 +11680,7 @@
         <v>ju</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F392" t="str">
         <f t="shared" si="31"/>
@@ -11704,7 +11704,7 @@
         <v>om</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F393" t="str">
         <f t="shared" si="31"/>
@@ -11728,7 +11728,7 @@
         <v>za</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F394" t="str">
         <f t="shared" si="31"/>
@@ -11752,7 +11752,7 @@
         <v>ce</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F395" t="str">
         <f t="shared" si="31"/>
@@ -11776,7 +11776,7 @@
         <v>jo</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F396" t="str">
         <f t="shared" si="31"/>
@@ -11800,7 +11800,7 @@
         <v>fr</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F397" t="str">
         <f t="shared" si="31"/>
@@ -11824,7 +11824,7 @@
         <v>ca</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F398" t="str">
         <f t="shared" si="31"/>
@@ -11848,7 +11848,7 @@
         <v>fr</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F399" t="str">
         <f t="shared" si="31"/>
@@ -11872,7 +11872,7 @@
         <v>br</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F400" t="str">
         <f t="shared" si="31"/>
@@ -11896,7 +11896,7 @@
         <v>os</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F401" t="str">
         <f t="shared" si="31"/>
@@ -11920,7 +11920,7 @@
         <v>sa</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F402" t="str">
         <f t="shared" si="31"/>
@@ -11944,7 +11944,7 @@
         <v>de</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F403" t="str">
         <f t="shared" si="31"/>
@@ -11968,7 +11968,7 @@
         <v>ad</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F404" t="str">
         <f t="shared" si="31"/>
@@ -11992,7 +11992,7 @@
         <v>do</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F405" t="str">
         <f t="shared" si="31"/>
@@ -12016,7 +12016,7 @@
         <v>jo</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F406" t="str">
         <f t="shared" si="31"/>
@@ -12040,7 +12040,7 @@
         <v>be</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F407" t="str">
         <f t="shared" si="31"/>
@@ -12064,7 +12064,7 @@
         <v>mi</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F408" t="str">
         <f t="shared" si="31"/>
@@ -12088,7 +12088,7 @@
         <v>ko</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F409" t="str">
         <f t="shared" si="31"/>
@@ -12112,7 +12112,7 @@
         <v>to</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F410" t="str">
         <f t="shared" ref="F410:F473" si="35">C410&amp;D410&amp;E410</f>
@@ -12136,7 +12136,7 @@
         <v>pa</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F411" t="str">
         <f t="shared" si="35"/>
@@ -12160,10 +12160,10 @@
         <v>ty</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F412" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -12183,7 +12183,7 @@
         <v>ma</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F413" t="str">
         <f t="shared" si="35"/>
@@ -12207,7 +12207,7 @@
         <v>dy</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F414" t="str">
         <f t="shared" si="35"/>
@@ -12231,7 +12231,7 @@
         <v>an</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F415" t="str">
         <f t="shared" si="35"/>
@@ -12255,7 +12255,7 @@
         <v>de</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F416" t="str">
         <f t="shared" si="35"/>
@@ -12279,7 +12279,7 @@
         <v>jo</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F417" t="str">
         <f t="shared" si="35"/>
@@ -12303,7 +12303,7 @@
         <v>ja</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F418" t="str">
         <f t="shared" si="35"/>
@@ -12327,7 +12327,7 @@
         <v>wi</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F419" t="str">
         <f t="shared" si="35"/>
@@ -12351,7 +12351,7 @@
         <v>mi</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F420" t="str">
         <f t="shared" si="35"/>
@@ -12375,7 +12375,7 @@
         <v>jo</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F421" t="str">
         <f t="shared" si="35"/>
@@ -12399,7 +12399,7 @@
         <v>je</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F422" t="str">
         <f t="shared" si="35"/>
@@ -12423,7 +12423,7 @@
         <v>ca</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F423" t="str">
         <f t="shared" si="35"/>
@@ -12447,7 +12447,7 @@
         <v>au</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F424" t="str">
         <f t="shared" si="35"/>
@@ -12471,7 +12471,7 @@
         <v>is</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F425" t="str">
         <f t="shared" si="35"/>
@@ -12495,7 +12495,7 @@
         <v>vi</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F426" t="str">
         <f t="shared" si="35"/>
@@ -12519,7 +12519,7 @@
         <v>ni</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F427" t="str">
         <f t="shared" si="35"/>
@@ -12543,7 +12543,7 @@
         <v>ha</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F428" t="str">
         <f t="shared" si="35"/>
@@ -12567,7 +12567,7 @@
         <v>ch</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F429" t="str">
         <f t="shared" si="35"/>
@@ -12591,7 +12591,7 @@
         <v>jo</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F430" t="str">
         <f t="shared" si="35"/>
@@ -12615,7 +12615,7 @@
         <v>gr</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F431" t="str">
         <f t="shared" si="35"/>
@@ -12639,7 +12639,7 @@
         <v>er</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F432" t="str">
         <f t="shared" si="35"/>
@@ -12663,7 +12663,7 @@
         <v>ad</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F433" t="str">
         <f t="shared" si="35"/>
@@ -12687,7 +12687,7 @@
         <v>br</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F434" t="str">
         <f t="shared" si="35"/>
@@ -12711,7 +12711,7 @@
         <v>jo</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F435" t="str">
         <f t="shared" si="35"/>
@@ -12735,7 +12735,7 @@
         <v>gr</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F436" t="str">
         <f t="shared" si="35"/>
@@ -12759,7 +12759,7 @@
         <v>jt</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F437" t="str">
         <f t="shared" si="35"/>
@@ -12783,7 +12783,7 @@
         <v>co</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F438" t="str">
         <f t="shared" si="35"/>
@@ -12807,7 +12807,7 @@
         <v>ja</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F439" t="str">
         <f t="shared" si="35"/>
@@ -12831,10 +12831,10 @@
         <v>jo</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F440" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -12854,7 +12854,7 @@
         <v>ja</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F441" t="str">
         <f t="shared" si="35"/>
@@ -12878,7 +12878,7 @@
         <v>jo</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F442" t="str">
         <f t="shared" si="35"/>
@@ -12902,7 +12902,7 @@
         <v>wh</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F443" t="str">
         <f t="shared" si="35"/>
@@ -12926,7 +12926,7 @@
         <v>hu</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F444" t="str">
         <f t="shared" si="35"/>
@@ -12950,7 +12950,7 @@
         <v>jo</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F445" t="str">
         <f t="shared" si="35"/>
@@ -12974,10 +12974,10 @@
         <v>ry</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F446" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -12997,7 +12997,7 @@
         <v>ma</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F447" t="str">
         <f t="shared" si="35"/>
@@ -13021,7 +13021,7 @@
         <v>al</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F448" t="str">
         <f t="shared" si="35"/>
@@ -13045,10 +13045,10 @@
         <v>ad</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F449" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -13068,7 +13068,7 @@
         <v>ni</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F450" t="str">
         <f t="shared" si="35"/>
@@ -13092,7 +13092,7 @@
         <v>ca</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F451" t="str">
         <f t="shared" si="35"/>
@@ -13116,7 +13116,7 @@
         <v>me</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F452" t="str">
         <f t="shared" si="35"/>
@@ -13140,7 +13140,7 @@
         <v>ni</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F453" t="str">
         <f t="shared" si="35"/>
@@ -13164,7 +13164,7 @@
         <v>da</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F454" t="str">
         <f t="shared" si="35"/>
@@ -13188,10 +13188,10 @@
         <v>yo</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F455" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -13211,7 +13211,7 @@
         <v>se</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F456" t="str">
         <f t="shared" si="35"/>
@@ -13220,7 +13220,7 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>425</v>
+        <v>622</v>
       </c>
       <c r="B457" t="str">
         <f t="shared" si="32"/>
@@ -13228,22 +13228,22 @@
       </c>
       <c r="C457" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">wade </v>
+        <v>wade</v>
       </c>
       <c r="D457" t="str">
         <f t="shared" si="34"/>
         <v>la</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F457" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B458" t="str">
         <f t="shared" si="32"/>
@@ -13258,7 +13258,7 @@
         <v>by</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F458" t="str">
         <f t="shared" si="35"/>
@@ -13267,7 +13267,7 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B459" t="str">
         <f t="shared" si="32"/>
@@ -13282,7 +13282,7 @@
         <v>wi</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F459" t="str">
         <f t="shared" si="35"/>
@@ -13291,7 +13291,7 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B460" t="str">
         <f t="shared" si="32"/>
@@ -13306,7 +13306,7 @@
         <v>tr</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F460" t="str">
         <f t="shared" si="35"/>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B461" t="str">
         <f t="shared" si="32"/>
@@ -13330,7 +13330,7 @@
         <v>ry</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F461" t="str">
         <f t="shared" si="35"/>
@@ -13339,7 +13339,7 @@
     </row>
     <row r="462" spans="1:6">
       <c r="A462" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B462" t="str">
         <f t="shared" si="32"/>
@@ -13354,7 +13354,7 @@
         <v>ia</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F462" t="str">
         <f t="shared" si="35"/>
@@ -13363,7 +13363,7 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B463" t="str">
         <f t="shared" si="32"/>
@@ -13378,7 +13378,7 @@
         <v>an</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F463" t="str">
         <f t="shared" si="35"/>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="464" spans="1:6">
       <c r="A464" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B464" t="str">
         <f t="shared" si="32"/>
@@ -13402,7 +13402,7 @@
         <v>wi</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F464" t="str">
         <f t="shared" si="35"/>
@@ -13411,7 +13411,7 @@
     </row>
     <row r="465" spans="1:6">
       <c r="A465" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B465" t="str">
         <f t="shared" si="32"/>
@@ -13426,7 +13426,7 @@
         <v>ja</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F465" t="str">
         <f t="shared" si="35"/>
@@ -13435,7 +13435,7 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B466" t="str">
         <f t="shared" si="32"/>
@@ -13450,7 +13450,7 @@
         <v>ja</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F466" t="str">
         <f t="shared" si="35"/>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="467" spans="1:6">
       <c r="A467" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B467" t="str">
         <f t="shared" si="32"/>
@@ -13474,7 +13474,7 @@
         <v>ky</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F467" t="str">
         <f t="shared" si="35"/>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="468" spans="1:6">
       <c r="A468" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B468" t="str">
         <f t="shared" si="32"/>
@@ -13498,7 +13498,7 @@
         <v>vi</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F468" t="str">
         <f t="shared" si="35"/>
@@ -13507,7 +13507,7 @@
     </row>
     <row r="469" spans="1:6">
       <c r="A469" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B469" t="str">
         <f t="shared" si="32"/>
@@ -13522,7 +13522,7 @@
         <v>ja</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F469" t="str">
         <f t="shared" si="35"/>
@@ -13531,7 +13531,7 @@
     </row>
     <row r="470" spans="1:6">
       <c r="A470" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B470" t="str">
         <f t="shared" si="32"/>
@@ -13546,7 +13546,7 @@
         <v>ni</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F470" t="str">
         <f t="shared" si="35"/>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="471" spans="1:6">
       <c r="A471" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B471" t="str">
         <f t="shared" si="32"/>
@@ -13570,7 +13570,7 @@
         <v>kr</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F471" t="str">
         <f t="shared" si="35"/>
@@ -13579,7 +13579,7 @@
     </row>
     <row r="472" spans="1:6">
       <c r="A472" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B472" t="str">
         <f t="shared" si="32"/>
@@ -13594,7 +13594,7 @@
         <v>bi</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F472" t="str">
         <f t="shared" si="35"/>
@@ -13603,7 +13603,7 @@
     </row>
     <row r="473" spans="1:6">
       <c r="A473" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B473" t="str">
         <f t="shared" si="32"/>
@@ -13618,7 +13618,7 @@
         <v>da</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F473" t="str">
         <f t="shared" si="35"/>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="474" spans="1:6">
       <c r="A474" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B474" t="str">
         <f t="shared" ref="B474:B537" si="36">LOWER(LEFT(MID(A474,FIND(" ",A474)+1,256),1))</f>
@@ -13642,7 +13642,7 @@
         <v>ry</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F474" t="str">
         <f t="shared" ref="F474:F537" si="39">C474&amp;D474&amp;E474</f>
@@ -13651,7 +13651,7 @@
     </row>
     <row r="475" spans="1:6">
       <c r="A475" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B475" t="str">
         <f t="shared" si="36"/>
@@ -13666,7 +13666,7 @@
         <v>lo</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F475" t="str">
         <f t="shared" si="39"/>
@@ -13675,7 +13675,7 @@
     </row>
     <row r="476" spans="1:6">
       <c r="A476" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B476" t="str">
         <f t="shared" si="36"/>
@@ -13690,7 +13690,7 @@
         <v>lo</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F476" t="str">
         <f t="shared" si="39"/>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="477" spans="1:6">
       <c r="A477" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B477" t="str">
         <f t="shared" si="36"/>
@@ -13714,7 +13714,7 @@
         <v>ke</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F477" t="str">
         <f t="shared" si="39"/>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="478" spans="1:6">
       <c r="A478" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B478" t="str">
         <f t="shared" si="36"/>
@@ -13738,7 +13738,7 @@
         <v>co</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F478" t="str">
         <f t="shared" si="39"/>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="479" spans="1:6">
       <c r="A479" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B479" t="str">
         <f t="shared" si="36"/>
@@ -13762,7 +13762,7 @@
         <v>ph</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F479" t="str">
         <f t="shared" si="39"/>
@@ -13771,7 +13771,7 @@
     </row>
     <row r="480" spans="1:6">
       <c r="A480" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B480" t="str">
         <f t="shared" si="36"/>
@@ -13786,7 +13786,7 @@
         <v>gu</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F480" t="str">
         <f t="shared" si="39"/>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="481" spans="1:6">
       <c r="A481" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B481" t="str">
         <f t="shared" si="36"/>
@@ -13810,7 +13810,7 @@
         <v>st</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F481" t="str">
         <f t="shared" si="39"/>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="482" spans="1:6">
       <c r="A482" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B482" t="str">
         <f t="shared" si="36"/>
@@ -13834,7 +13834,7 @@
         <v>jo</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F482" t="str">
         <f t="shared" si="39"/>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="483" spans="1:6">
       <c r="A483" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B483" t="str">
         <f t="shared" si="36"/>
@@ -13858,7 +13858,7 @@
         <v>al</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F483" t="str">
         <f t="shared" si="39"/>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="484" spans="1:6">
       <c r="A484" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B484" t="str">
         <f t="shared" si="36"/>
@@ -13882,7 +13882,7 @@
         <v>sa</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F484" t="str">
         <f t="shared" si="39"/>
@@ -13891,7 +13891,7 @@
     </row>
     <row r="485" spans="1:6">
       <c r="A485" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B485" t="str">
         <f t="shared" si="36"/>
@@ -13906,7 +13906,7 @@
         <v>fr</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F485" t="str">
         <f t="shared" si="39"/>
@@ -13915,7 +13915,7 @@
     </row>
     <row r="486" spans="1:6">
       <c r="A486" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B486" t="str">
         <f t="shared" si="36"/>
@@ -13930,7 +13930,7 @@
         <v>ry</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F486" t="str">
         <f t="shared" si="39"/>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="487" spans="1:6">
       <c r="A487" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B487" t="str">
         <f t="shared" si="36"/>
@@ -13954,7 +13954,7 @@
         <v>bu</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F487" t="str">
         <f t="shared" si="39"/>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="488" spans="1:6">
       <c r="A488" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B488" t="str">
         <f t="shared" si="36"/>
@@ -13978,7 +13978,7 @@
         <v>lu</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F488" t="str">
         <f t="shared" si="39"/>
@@ -13987,7 +13987,7 @@
     </row>
     <row r="489" spans="1:6">
       <c r="A489" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B489" t="str">
         <f t="shared" si="36"/>
@@ -14002,7 +14002,7 @@
         <v>br</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F489" t="str">
         <f t="shared" si="39"/>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="490" spans="1:6">
       <c r="A490" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B490" t="str">
         <f t="shared" si="36"/>
@@ -14026,7 +14026,7 @@
         <v>ma</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F490" t="str">
         <f t="shared" si="39"/>
@@ -14035,7 +14035,7 @@
     </row>
     <row r="491" spans="1:6">
       <c r="A491" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B491" t="str">
         <f t="shared" si="36"/>
@@ -14050,7 +14050,7 @@
         <v>ha</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F491" t="str">
         <f t="shared" si="39"/>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="492" spans="1:6">
       <c r="A492" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B492" t="str">
         <f t="shared" si="36"/>
@@ -14074,7 +14074,7 @@
         <v>ry</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F492" t="str">
         <f t="shared" si="39"/>
@@ -14083,7 +14083,7 @@
     </row>
     <row r="493" spans="1:6">
       <c r="A493" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B493" t="str">
         <f t="shared" si="36"/>
@@ -14098,7 +14098,7 @@
         <v>he</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F493" t="str">
         <f t="shared" si="39"/>
@@ -14107,7 +14107,7 @@
     </row>
     <row r="494" spans="1:6">
       <c r="A494" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B494" t="str">
         <f t="shared" si="36"/>
@@ -14122,7 +14122,7 @@
         <v>pa</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F494" t="str">
         <f t="shared" si="39"/>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="495" spans="1:6">
       <c r="A495" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B495" t="str">
         <f t="shared" si="36"/>
@@ -14146,7 +14146,7 @@
         <v>ya</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F495" t="str">
         <f t="shared" si="39"/>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="496" spans="1:6">
       <c r="A496" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B496" t="str">
         <f t="shared" si="36"/>
@@ -14170,7 +14170,7 @@
         <v>ra</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F496" t="str">
         <f t="shared" si="39"/>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="497" spans="1:6">
       <c r="A497" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B497" t="str">
         <f t="shared" si="36"/>
@@ -14194,7 +14194,7 @@
         <v>la</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F497" t="str">
         <f t="shared" si="39"/>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="498" spans="1:6">
       <c r="A498" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B498" t="str">
         <f t="shared" si="36"/>
@@ -14218,7 +14218,7 @@
         <v>jo</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F498" t="str">
         <f t="shared" si="39"/>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="499" spans="1:6">
       <c r="A499" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B499" t="str">
         <f t="shared" si="36"/>
@@ -14242,7 +14242,7 @@
         <v>ty</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F499" t="str">
         <f t="shared" si="39"/>
@@ -14251,7 +14251,7 @@
     </row>
     <row r="500" spans="1:6">
       <c r="A500" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B500" t="str">
         <f t="shared" si="36"/>
@@ -14266,7 +14266,7 @@
         <v>ty</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F500" t="str">
         <f t="shared" si="39"/>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="501" spans="1:6">
       <c r="A501" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B501" t="str">
         <f t="shared" si="36"/>
@@ -14290,7 +14290,7 @@
         <v>ro</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F501" t="str">
         <f t="shared" si="39"/>
@@ -14299,7 +14299,7 @@
     </row>
     <row r="502" spans="1:6">
       <c r="A502" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B502" t="str">
         <f t="shared" si="36"/>
@@ -14314,7 +14314,7 @@
         <v>jo</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F502" t="str">
         <f t="shared" si="39"/>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="503" spans="1:6">
       <c r="A503" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B503" t="str">
         <f t="shared" si="36"/>
@@ -14338,7 +14338,7 @@
         <v>yu</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F503" t="str">
         <f t="shared" si="39"/>
@@ -14347,7 +14347,7 @@
     </row>
     <row r="504" spans="1:6">
       <c r="A504" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B504" t="str">
         <f t="shared" si="36"/>
@@ -14362,15 +14362,15 @@
         <v>c.</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F504" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="505" spans="1:6">
       <c r="A505" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B505" t="str">
         <f t="shared" si="36"/>
@@ -14385,7 +14385,7 @@
         <v>ma</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F505" t="str">
         <f t="shared" si="39"/>
@@ -14394,7 +14394,7 @@
     </row>
     <row r="506" spans="1:6">
       <c r="A506" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B506" t="str">
         <f t="shared" si="36"/>
@@ -14409,7 +14409,7 @@
         <v>tr</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F506" t="str">
         <f t="shared" si="39"/>
@@ -14418,7 +14418,7 @@
     </row>
     <row r="507" spans="1:6">
       <c r="A507" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B507" t="str">
         <f t="shared" si="36"/>
@@ -14433,7 +14433,7 @@
         <v>ch</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F507" t="str">
         <f t="shared" si="39"/>
@@ -14442,7 +14442,7 @@
     </row>
     <row r="508" spans="1:6">
       <c r="A508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B508" t="str">
         <f t="shared" si="36"/>
@@ -14457,7 +14457,7 @@
         <v>da</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F508" t="str">
         <f t="shared" si="39"/>
@@ -14466,7 +14466,7 @@
     </row>
     <row r="509" spans="1:6">
       <c r="A509" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B509" t="str">
         <f t="shared" si="36"/>
@@ -14481,7 +14481,7 @@
         <v>ma</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F509" t="str">
         <f t="shared" si="39"/>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="510" spans="1:6">
       <c r="A510" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B510" t="str">
         <f t="shared" si="36"/>
@@ -14505,7 +14505,7 @@
         <v>ke</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F510" t="str">
         <f t="shared" si="39"/>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="511" spans="1:6">
       <c r="A511" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B511" t="str">
         <f t="shared" si="36"/>
@@ -14529,7 +14529,7 @@
         <v>ja</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F511" t="str">
         <f t="shared" si="39"/>
@@ -14538,7 +14538,7 @@
     </row>
     <row r="512" spans="1:6">
       <c r="A512" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B512" t="str">
         <f t="shared" si="36"/>
@@ -14553,7 +14553,7 @@
         <v>ty</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F512" t="str">
         <f t="shared" si="39"/>
@@ -14562,7 +14562,7 @@
     </row>
     <row r="513" spans="1:6">
       <c r="A513" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B513" t="str">
         <f t="shared" si="36"/>
@@ -14577,7 +14577,7 @@
         <v>ja</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F513" t="str">
         <f t="shared" si="39"/>
@@ -14586,7 +14586,7 @@
     </row>
     <row r="514" spans="1:6">
       <c r="A514" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B514" t="str">
         <f t="shared" si="36"/>
@@ -14601,7 +14601,7 @@
         <v>er</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F514" t="str">
         <f t="shared" si="39"/>
@@ -14610,7 +14610,7 @@
     </row>
     <row r="515" spans="1:6">
       <c r="A515" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B515" t="str">
         <f t="shared" si="36"/>
@@ -14625,7 +14625,7 @@
         <v>ma</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F515" t="str">
         <f t="shared" si="39"/>
@@ -14634,7 +14634,7 @@
     </row>
     <row r="516" spans="1:6">
       <c r="A516" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B516" t="str">
         <f t="shared" si="36"/>
@@ -14649,7 +14649,7 @@
         <v>ja</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F516" t="str">
         <f t="shared" si="39"/>
@@ -14658,7 +14658,7 @@
     </row>
     <row r="517" spans="1:6">
       <c r="A517" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B517" t="str">
         <f t="shared" si="36"/>
@@ -14673,15 +14673,15 @@
         <v>an</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F517" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="518" spans="1:6">
       <c r="A518" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B518" t="str">
         <f t="shared" si="36"/>
@@ -14696,7 +14696,7 @@
         <v>da</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F518" t="str">
         <f t="shared" si="39"/>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="519" spans="1:6">
       <c r="A519" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B519" t="str">
         <f t="shared" si="36"/>
@@ -14720,7 +14720,7 @@
         <v>ch</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F519" t="str">
         <f t="shared" si="39"/>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="520" spans="1:6">
       <c r="A520" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B520" t="str">
         <f t="shared" si="36"/>
@@ -14744,7 +14744,7 @@
         <v>gr</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F520" t="str">
         <f t="shared" si="39"/>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="521" spans="1:6">
       <c r="A521" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B521" t="str">
         <f t="shared" si="36"/>
@@ -14768,7 +14768,7 @@
         <v>au</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F521" t="str">
         <f t="shared" si="39"/>
@@ -14777,7 +14777,7 @@
     </row>
     <row r="522" spans="1:6">
       <c r="A522" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B522" t="str">
         <f t="shared" si="36"/>
@@ -14792,7 +14792,7 @@
         <v>hu</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F522" t="str">
         <f t="shared" si="39"/>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="523" spans="1:6">
       <c r="A523" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B523" t="str">
         <f t="shared" si="36"/>
@@ -14816,7 +14816,7 @@
         <v>da</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F523" t="str">
         <f t="shared" si="39"/>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="524" spans="1:6">
       <c r="A524" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B524" t="str">
         <f t="shared" si="36"/>
@@ -14840,7 +14840,7 @@
         <v>sh</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F524" t="str">
         <f t="shared" si="39"/>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="525" spans="1:6">
       <c r="A525" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B525" t="str">
         <f t="shared" si="36"/>
@@ -14864,7 +14864,7 @@
         <v>el</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F525" t="str">
         <f t="shared" si="39"/>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="526" spans="1:6">
       <c r="A526" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B526" t="str">
         <f t="shared" si="36"/>
@@ -14888,7 +14888,7 @@
         <v>jo</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F526" t="str">
         <f t="shared" si="39"/>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="527" spans="1:6">
       <c r="A527" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B527" t="str">
         <f t="shared" si="36"/>
@@ -14912,7 +14912,7 @@
         <v>ta</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F527" t="str">
         <f t="shared" si="39"/>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="528" spans="1:6">
       <c r="A528" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B528" t="str">
         <f t="shared" si="36"/>
@@ -14936,7 +14936,7 @@
         <v>da</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F528" t="str">
         <f t="shared" si="39"/>
@@ -14945,7 +14945,7 @@
     </row>
     <row r="529" spans="1:6">
       <c r="A529" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B529" t="str">
         <f t="shared" si="36"/>
@@ -14960,7 +14960,7 @@
         <v>jo</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F529" t="str">
         <f t="shared" si="39"/>
@@ -14969,7 +14969,7 @@
     </row>
     <row r="530" spans="1:6">
       <c r="A530" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B530" t="str">
         <f t="shared" si="36"/>
@@ -14984,7 +14984,7 @@
         <v>za</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F530" t="str">
         <f t="shared" si="39"/>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="531" spans="1:6">
       <c r="A531" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B531" t="str">
         <f t="shared" si="36"/>
@@ -15008,7 +15008,7 @@
         <v>jo</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F531" t="str">
         <f t="shared" si="39"/>
@@ -15017,7 +15017,7 @@
     </row>
     <row r="532" spans="1:6">
       <c r="A532" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B532" t="str">
         <f t="shared" si="36"/>
@@ -15032,7 +15032,7 @@
         <v>os</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F532" t="str">
         <f t="shared" si="39"/>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="533" spans="1:6">
       <c r="A533" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B533" t="str">
         <f t="shared" si="36"/>
@@ -15056,7 +15056,7 @@
         <v>tr</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F533" t="str">
         <f t="shared" si="39"/>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="534" spans="1:6">
       <c r="A534" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B534" t="str">
         <f t="shared" si="36"/>
@@ -15080,7 +15080,7 @@
         <v>da</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F534" t="str">
         <f t="shared" si="39"/>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="535" spans="1:6">
       <c r="A535" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B535" t="str">
         <f t="shared" si="36"/>
@@ -15104,7 +15104,7 @@
         <v>ke</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F535" t="str">
         <f t="shared" si="39"/>
@@ -15113,7 +15113,7 @@
     </row>
     <row r="536" spans="1:6">
       <c r="A536" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B536" t="str">
         <f t="shared" si="36"/>
@@ -15128,7 +15128,7 @@
         <v>er</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F536" t="str">
         <f t="shared" si="39"/>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="537" spans="1:6">
       <c r="A537" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B537" t="str">
         <f t="shared" si="36"/>
@@ -15152,7 +15152,7 @@
         <v>yo</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F537" t="str">
         <f t="shared" si="39"/>
@@ -15161,7 +15161,7 @@
     </row>
     <row r="538" spans="1:6">
       <c r="A538" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B538" t="str">
         <f t="shared" ref="B538:B584" si="40">LOWER(LEFT(MID(A538,FIND(" ",A538)+1,256),1))</f>
@@ -15176,7 +15176,7 @@
         <v>ni</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F538" t="str">
         <f t="shared" ref="F538:F584" si="43">C538&amp;D538&amp;E538</f>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="539" spans="1:6">
       <c r="A539" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B539" t="str">
         <f t="shared" si="40"/>
@@ -15200,7 +15200,7 @@
         <v>br</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F539" t="str">
         <f t="shared" si="43"/>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="540" spans="1:6">
       <c r="A540" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B540" t="str">
         <f t="shared" si="40"/>
@@ -15224,7 +15224,7 @@
         <v>de</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F540" t="str">
         <f t="shared" si="43"/>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="541" spans="1:6">
       <c r="A541" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B541" t="str">
         <f t="shared" si="40"/>
@@ -15248,7 +15248,7 @@
         <v>jo</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F541" t="str">
         <f t="shared" si="43"/>
@@ -15257,7 +15257,7 @@
     </row>
     <row r="542" spans="1:6">
       <c r="A542" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B542" t="str">
         <f t="shared" si="40"/>
@@ -15272,7 +15272,7 @@
         <v>ja</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F542" t="str">
         <f t="shared" si="43"/>
@@ -15281,7 +15281,7 @@
     </row>
     <row r="543" spans="1:6">
       <c r="A543" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B543" t="str">
         <f t="shared" si="40"/>
@@ -15296,7 +15296,7 @@
         <v>ro</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F543" t="str">
         <f t="shared" si="43"/>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="544" spans="1:6">
       <c r="A544" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B544" t="str">
         <f t="shared" si="40"/>
@@ -15320,7 +15320,7 @@
         <v>ja</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F544" t="str">
         <f t="shared" si="43"/>
@@ -15329,7 +15329,7 @@
     </row>
     <row r="545" spans="1:6">
       <c r="A545" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B545" t="str">
         <f t="shared" si="40"/>
@@ -15344,7 +15344,7 @@
         <v>el</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F545" t="str">
         <f t="shared" si="43"/>
@@ -15353,7 +15353,7 @@
     </row>
     <row r="546" spans="1:6">
       <c r="A546" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B546" t="str">
         <f t="shared" si="40"/>
@@ -15368,7 +15368,7 @@
         <v>ed</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F546" t="str">
         <f t="shared" si="43"/>
@@ -15377,7 +15377,7 @@
     </row>
     <row r="547" spans="1:6">
       <c r="A547" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B547" t="str">
         <f t="shared" si="40"/>
@@ -15392,7 +15392,7 @@
         <v>le</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F547" t="str">
         <f t="shared" si="43"/>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="548" spans="1:6">
       <c r="A548" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B548" t="str">
         <f t="shared" si="40"/>
@@ -15416,7 +15416,7 @@
         <v>ry</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F548" t="str">
         <f t="shared" si="43"/>
@@ -15425,7 +15425,7 @@
     </row>
     <row r="549" spans="1:6">
       <c r="A549" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B549" t="str">
         <f t="shared" si="40"/>
@@ -15440,7 +15440,7 @@
         <v>je</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F549" t="str">
         <f t="shared" si="43"/>
@@ -15449,7 +15449,7 @@
     </row>
     <row r="550" spans="1:6">
       <c r="A550" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B550" t="str">
         <f t="shared" si="40"/>
@@ -15464,15 +15464,15 @@
         <v>br</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F550" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="551" spans="1:6">
       <c r="A551" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B551" t="str">
         <f t="shared" si="40"/>
@@ -15487,7 +15487,7 @@
         <v>is</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F551" t="str">
         <f t="shared" si="43"/>
@@ -15496,7 +15496,7 @@
     </row>
     <row r="552" spans="1:6">
       <c r="A552" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B552" t="str">
         <f t="shared" si="40"/>
@@ -15511,7 +15511,7 @@
         <v>ra</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F552" t="str">
         <f t="shared" si="43"/>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="553" spans="1:6">
       <c r="A553" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B553" t="str">
         <f t="shared" si="40"/>
@@ -15535,7 +15535,7 @@
         <v>se</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F553" t="str">
         <f t="shared" si="43"/>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="554" spans="1:6">
       <c r="A554" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B554" t="str">
         <f t="shared" si="40"/>
@@ -15559,7 +15559,7 @@
         <v>an</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F554" t="str">
         <f t="shared" si="43"/>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="555" spans="1:6">
       <c r="A555" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B555" t="str">
         <f t="shared" si="40"/>
@@ -15583,7 +15583,7 @@
         <v>ja</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F555" t="str">
         <f t="shared" si="43"/>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="556" spans="1:6">
       <c r="A556" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B556" t="str">
         <f t="shared" si="40"/>
@@ -15607,7 +15607,7 @@
         <v>br</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F556" t="str">
         <f t="shared" si="43"/>
@@ -15616,7 +15616,7 @@
     </row>
     <row r="557" spans="1:6">
       <c r="A557" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B557" t="str">
         <f t="shared" si="40"/>
@@ -15631,7 +15631,7 @@
         <v>al</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F557" t="str">
         <f t="shared" si="43"/>
@@ -15640,7 +15640,7 @@
     </row>
     <row r="558" spans="1:6">
       <c r="A558" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B558" t="str">
         <f t="shared" si="40"/>
@@ -15655,7 +15655,7 @@
         <v>al</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F558" t="str">
         <f t="shared" si="43"/>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="559" spans="1:6">
       <c r="A559" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B559" t="str">
         <f t="shared" si="40"/>
@@ -15679,7 +15679,7 @@
         <v>al</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F559" t="str">
         <f t="shared" si="43"/>
@@ -15688,7 +15688,7 @@
     </row>
     <row r="560" spans="1:6">
       <c r="A560" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B560" t="str">
         <f t="shared" si="40"/>
@@ -15703,7 +15703,7 @@
         <v>wi</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F560" t="str">
         <f t="shared" si="43"/>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="561" spans="1:6">
       <c r="A561" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B561" t="str">
         <f t="shared" si="40"/>
@@ -15727,7 +15727,7 @@
         <v>re</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F561" t="str">
         <f t="shared" si="43"/>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="562" spans="1:6">
       <c r="A562" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B562" t="str">
         <f t="shared" si="40"/>
@@ -15751,7 +15751,7 @@
         <v>br</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F562" t="str">
         <f t="shared" si="43"/>
@@ -15760,7 +15760,7 @@
     </row>
     <row r="563" spans="1:6">
       <c r="A563" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B563" t="str">
         <f t="shared" si="40"/>
@@ -15775,7 +15775,7 @@
         <v>st</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F563" t="str">
         <f t="shared" si="43"/>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="564" spans="1:6">
       <c r="A564" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B564" t="str">
         <f t="shared" si="40"/>
@@ -15799,7 +15799,7 @@
         <v>ro</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F564" t="str">
         <f t="shared" si="43"/>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="565" spans="1:6">
       <c r="A565" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B565" t="str">
         <f t="shared" si="40"/>
@@ -15823,7 +15823,7 @@
         <v>ne</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F565" t="str">
         <f t="shared" si="43"/>
@@ -15832,7 +15832,7 @@
     </row>
     <row r="566" spans="1:6">
       <c r="A566" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B566" t="str">
         <f t="shared" si="40"/>
@@ -15847,7 +15847,7 @@
         <v>sc</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F566" t="str">
         <f t="shared" si="43"/>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="567" spans="1:6">
       <c r="A567" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B567" t="str">
         <f t="shared" si="40"/>
@@ -15871,7 +15871,7 @@
         <v>ad</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F567" t="str">
         <f t="shared" si="43"/>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="568" spans="1:6">
       <c r="A568" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B568" t="str">
         <f t="shared" si="40"/>
@@ -15895,7 +15895,7 @@
         <v>ro</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F568" t="str">
         <f t="shared" si="43"/>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="569" spans="1:6">
       <c r="A569" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B569" t="str">
         <f t="shared" si="40"/>
@@ -15919,7 +15919,7 @@
         <v>lu</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F569" t="str">
         <f t="shared" si="43"/>
@@ -15928,7 +15928,7 @@
     </row>
     <row r="570" spans="1:6">
       <c r="A570" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B570" t="str">
         <f t="shared" si="40"/>
@@ -15943,15 +15943,15 @@
         <v>lu</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F570" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="571" spans="1:6">
       <c r="A571" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B571" t="str">
         <f t="shared" si="40"/>
@@ -15966,7 +15966,7 @@
         <v>ha</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F571" t="str">
         <f t="shared" si="43"/>
@@ -15975,7 +15975,7 @@
     </row>
     <row r="572" spans="1:6">
       <c r="A572" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B572" t="str">
         <f t="shared" si="40"/>
@@ -15990,7 +15990,7 @@
         <v>mi</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F572" t="str">
         <f t="shared" si="43"/>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="573" spans="1:6">
       <c r="A573" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B573" t="str">
         <f t="shared" si="40"/>
@@ -16014,7 +16014,7 @@
         <v>jo</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F573" t="str">
         <f t="shared" si="43"/>
@@ -16023,7 +16023,7 @@
     </row>
     <row r="574" spans="1:6">
       <c r="A574" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B574" t="str">
         <f t="shared" si="40"/>
@@ -16038,7 +16038,7 @@
         <v>ju</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F574" t="str">
         <f t="shared" si="43"/>
@@ -16047,7 +16047,7 @@
     </row>
     <row r="575" spans="1:6">
       <c r="A575" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B575" t="str">
         <f t="shared" si="40"/>
@@ -16062,7 +16062,7 @@
         <v>ab</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F575" t="str">
         <f t="shared" si="43"/>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="576" spans="1:6">
       <c r="A576" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B576" t="str">
         <f t="shared" si="40"/>
@@ -16086,7 +16086,7 @@
         <v>da</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F576" t="str">
         <f t="shared" si="43"/>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="577" spans="1:6">
       <c r="A577" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B577" t="str">
         <f t="shared" si="40"/>
@@ -16110,7 +16110,7 @@
         <v>se</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F577" t="str">
         <f t="shared" si="43"/>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="578" spans="1:6">
       <c r="A578" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B578" t="str">
         <f t="shared" si="40"/>
@@ -16134,7 +16134,7 @@
         <v>ya</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F578" t="str">
         <f t="shared" si="43"/>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="579" spans="1:6">
       <c r="A579" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B579" t="str">
         <f t="shared" si="40"/>
@@ -16158,7 +16158,7 @@
         <v>au</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F579" t="str">
         <f t="shared" si="43"/>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="580" spans="1:6">
       <c r="A580" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B580" t="str">
         <f t="shared" si="40"/>
@@ -16182,7 +16182,7 @@
         <v>ya</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F580" t="str">
         <f t="shared" si="43"/>
@@ -16191,7 +16191,7 @@
     </row>
     <row r="581" spans="1:6">
       <c r="A581" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B581" t="str">
         <f t="shared" si="40"/>
@@ -16206,7 +16206,7 @@
         <v>em</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F581" t="str">
         <f t="shared" si="43"/>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="582" spans="1:6">
       <c r="A582" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B582" t="str">
         <f t="shared" si="40"/>
@@ -16230,7 +16230,7 @@
         <v>ry</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F582" t="str">
         <f t="shared" si="43"/>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="583" spans="1:6">
       <c r="A583" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B583" t="str">
         <f t="shared" si="40"/>
@@ -16254,7 +16254,7 @@
         <v>br</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F583" t="str">
         <f t="shared" si="43"/>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="584" spans="1:6">
       <c r="A584" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B584" t="str">
         <f t="shared" si="40"/>
@@ -16278,7 +16278,7 @@
         <v>ja</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F584" t="str">
         <f t="shared" si="43"/>
